--- a/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -491,8 +503,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,8 +550,14 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -573,8 +597,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -614,8 +644,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -655,8 +691,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -696,8 +738,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -737,8 +785,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -778,8 +832,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -819,8 +879,14 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -860,8 +926,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -901,8 +973,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -942,8 +1020,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -983,8 +1067,14 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1024,8 +1114,14 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1065,8 +1161,14 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1106,8 +1208,14 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1147,8 +1255,14 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1188,8 +1302,14 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1229,8 +1349,14 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1270,8 +1396,14 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1311,8 +1443,14 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1352,8 +1490,14 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.8177879724135551</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.09253522136373249</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.4248567432883448</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1520858137287497</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008361677266914199</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06486739952902809</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.816587866583518</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3544927727534883</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.797625355282605</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.7093786043627119</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.08162135171212981</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3909472438865151</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1413900827071011</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008410958193902025</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.06143275010641602</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7078918890136663</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3117758927055334</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.70117399695684</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.643245481613036</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.07492696672761667</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.3706582407671135</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1350207607237621</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000844218723049836</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05941196181341368</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6415011290666826</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2858641995603293</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.647680807199777</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.6163880182203911</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.07219923867490508</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3625152995392398</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1324719167340795</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008455162665412723</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05860938584684661</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6145185651617027</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2753767698532954</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.627252066689067</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6119334840809927</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.07174627936365852</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.3611704752969445</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1320514180009553</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008457332437899445</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05847734677464089</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6100420557775266</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2736394563577136</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.623940665731027</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.6428829190838314</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.07489018026772953</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.3705479272315415</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1349862009235849</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008442361204979295</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05940105491200853</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6411369602634664</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2857224817279658</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>3.647399840251552</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.7803090913555764</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.08876982769550068</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.4130490351139571</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1483549533869173</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008378471239705529</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0636640761318148</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7790273659947502</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3396934046200712</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3.763136423323658</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.054001525352845</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1161116924760535</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.501032570955374</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1762896607506121</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0008260625448606613</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07278311192552422</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.052963076221516</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4484248783915277</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>4.038942324424283</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.258831037395936</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.136382915753444</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5691357169188507</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1980841042465684</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0008178198542010558</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08003626530901897</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.257537974808315</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.5306523860321022</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.276442113655804</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.353115376984732</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1456710797068581</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.6010226344805005</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2083289481048922</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0008141511247538268</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.08347804326337638</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.351606567287007</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.5687087462052887</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.393291287088914</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.389003370153489</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1492002555726941</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.6132415606135453</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2122608042551022</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0008127726972016045</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08480380684528654</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.387398013139176</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.5832258965331221</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.438918092728102</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.381265611656517</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1484396129689856</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.6106033595581266</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.211411598707258</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0008130690974427485</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0845172487537198</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.379681715894947</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.5800944426824941</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.429028349382747</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.356064051353599</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1459611733271089</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.6020249235345148</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.2086513458128536</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0008140375081864897</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.08358665303469337</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.354547598994884</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.5699008806378245</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.397016729085124</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.340652195703626</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1444446875219114</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.5967895682875621</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.2069675800685431</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0008146320749282426</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08301961978920502</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.339175106367122</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.5636712262722341</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.377591696823117</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.252693725532851</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1357774510913856</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.567071217182189</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.197421633489185</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0008180611759812652</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.0798143653270742</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.251412710877787</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.5281794483909579</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.26899235418179</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.199034877114826</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1304790734258177</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.5490815302306373</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.1916534569387451</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0008201849952905842</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07788584235974128</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.197848214942013</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.5065815873522794</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4.204703073788863</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.168274216680771</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1274377094392776</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.53881877363429</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.1883665445425535</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0008214142267233092</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.07678987138058346</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.167132447329038</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.494219505287532</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>4.168547527631773</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.157876046763676</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1264089390091101</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.53535808335198</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.1872587997519091</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000821831763342978</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.07642101505861376</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.156747881548085</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.4900439336440314</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.156443796571637</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.204736168103949</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.131042444686031</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.550987728734583</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.1922642687331972</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0008199581231451702</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07808975031161935</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.203540435820059</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.5088743745927573</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.21146092907847</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.363461137907848</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1466888069004568</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.6045405940306523</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.2094606374782018</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000813752774840174</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.08385936602709876</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.361925282609519</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.5728919945549649</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.40638096582785</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.468286248598275</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1569855202938726</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.6403872770144119</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.2210071762252213</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.000809759995427711</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.08776196540635084</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.466441330370344</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.615355819233578</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4.541866711530815</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.412230467061391</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1514826433156884</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.6211729170100853</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.2148147078765419</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0008118855517342816</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.08566631480928777</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.410558600368006</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.5926305227862585</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.468775318665223</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.202158340607127</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.130787729938703</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.5501256889964452</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.1919880298527374</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0008200606663581423</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07799752392144654</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.200966738012312</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.5078376356717342</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.208403202966167</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.979393673079926</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1086911649990725</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.4766714762043023</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.1685265634506123</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0008291747130721728</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07022595443491753</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9783635638583235</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.4186432233072352</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.958598262693442</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8177879724135551</v>
+        <v>0.438353082513629</v>
       </c>
       <c r="C2">
-        <v>0.09253522136373249</v>
+        <v>0.02551663813159166</v>
       </c>
       <c r="D2">
-        <v>0.4248567432883448</v>
+        <v>0.6301285277367725</v>
       </c>
       <c r="E2">
-        <v>0.1520858137287497</v>
+        <v>0.2434783830575107</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008361677266914199</v>
+        <v>0.002533955021152286</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06486739952902809</v>
+        <v>0.1165594566598962</v>
       </c>
       <c r="K2">
-        <v>0.816587866583518</v>
+        <v>0.3861236454256414</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3544927727534883</v>
+        <v>0.3240210665798813</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.797625355282605</v>
+        <v>6.493975059679684</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7093786043627119</v>
+        <v>0.4099427871376804</v>
       </c>
       <c r="C3">
-        <v>0.08162135171212981</v>
+        <v>0.02238307421842478</v>
       </c>
       <c r="D3">
-        <v>0.3909472438865151</v>
+        <v>0.6248026463177325</v>
       </c>
       <c r="E3">
-        <v>0.1413900827071011</v>
+        <v>0.2420530726684511</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008410958193902025</v>
+        <v>0.002537101871097631</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06143275010641602</v>
+        <v>0.1163041069418149</v>
       </c>
       <c r="K3">
-        <v>0.7078918890136663</v>
+        <v>0.3571244798797863</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3117758927055334</v>
+        <v>0.3143606908792478</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.70117399695684</v>
+        <v>6.499767941423812</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.643245481613036</v>
+        <v>0.3927038230266646</v>
       </c>
       <c r="C4">
-        <v>0.07492696672761667</v>
+        <v>0.02045940630277698</v>
       </c>
       <c r="D4">
-        <v>0.3706582407671135</v>
+        <v>0.6218220577688243</v>
       </c>
       <c r="E4">
-        <v>0.1350207607237621</v>
+        <v>0.2412857709669431</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000844218723049836</v>
+        <v>0.002539137413494199</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05941196181341368</v>
+        <v>0.1161953437903165</v>
       </c>
       <c r="K4">
-        <v>0.6415011290666826</v>
+        <v>0.3394821284449421</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2858641995603293</v>
+        <v>0.3085963874768112</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.647680807199777</v>
+        <v>6.506022152374243</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6163880182203911</v>
+        <v>0.3857306885595051</v>
       </c>
       <c r="C5">
-        <v>0.07219923867490508</v>
+        <v>0.0196756155546467</v>
       </c>
       <c r="D5">
-        <v>0.3625152995392398</v>
+        <v>0.6206803455029473</v>
       </c>
       <c r="E5">
-        <v>0.1324719167340795</v>
+        <v>0.2410002372427833</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008455162665412723</v>
+        <v>0.00253999298485402</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05860938584684661</v>
+        <v>0.1161631061015846</v>
       </c>
       <c r="K5">
-        <v>0.6145185651617027</v>
+        <v>0.3323340913769073</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2753767698532954</v>
+        <v>0.3062895471690439</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.627252066689067</v>
+        <v>6.509249082385139</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6119334840809927</v>
+        <v>0.3845759479010553</v>
       </c>
       <c r="C6">
-        <v>0.07174627936365852</v>
+        <v>0.01954547583486743</v>
       </c>
       <c r="D6">
-        <v>0.3611704752969445</v>
+        <v>0.6204951710610374</v>
       </c>
       <c r="E6">
-        <v>0.1320514180009553</v>
+        <v>0.2409544651316722</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008457332437899445</v>
+        <v>0.002540136628855498</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05847734677464089</v>
+        <v>0.1161584831660036</v>
       </c>
       <c r="K6">
-        <v>0.6100420557775266</v>
+        <v>0.331149672861855</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2736394563577136</v>
+        <v>0.3059090478663791</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.623940665731027</v>
+        <v>6.509825879186963</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6428829190838314</v>
+        <v>0.3926095704012482</v>
       </c>
       <c r="C7">
-        <v>0.07489018026772953</v>
+        <v>0.02044883530173536</v>
       </c>
       <c r="D7">
-        <v>0.3705479272315415</v>
+        <v>0.6218063649296539</v>
       </c>
       <c r="E7">
-        <v>0.1349862009235849</v>
+        <v>0.2412818101987213</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008442361204979295</v>
+        <v>0.002539148846319973</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05940105491200853</v>
+        <v>0.116194860081599</v>
       </c>
       <c r="K7">
-        <v>0.6411369602634664</v>
+        <v>0.3393855596172131</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2857224817279658</v>
+        <v>0.3085651057636554</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.647399840251552</v>
+        <v>6.506062925515465</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7803090913555764</v>
+        <v>0.4285148292560166</v>
       </c>
       <c r="C8">
-        <v>0.08876982769550068</v>
+        <v>0.02443612940361106</v>
       </c>
       <c r="D8">
-        <v>0.4130490351139571</v>
+        <v>0.6282321288906729</v>
       </c>
       <c r="E8">
-        <v>0.1483549533869173</v>
+        <v>0.242964569537893</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008378471239705529</v>
+        <v>0.002535018649774666</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0636640761318148</v>
+        <v>0.1164614497278258</v>
       </c>
       <c r="K8">
-        <v>0.7790273659947502</v>
+        <v>0.3760910271105899</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3396934046200712</v>
+        <v>0.3206555301103009</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.763136423323658</v>
+        <v>6.495412604876066</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.054001525352845</v>
+        <v>0.5005422801220618</v>
       </c>
       <c r="C9">
-        <v>0.1161116924760535</v>
+        <v>0.03225705669143508</v>
       </c>
       <c r="D9">
-        <v>0.501032570955374</v>
+        <v>0.6431273292498645</v>
       </c>
       <c r="E9">
-        <v>0.1762896607506121</v>
+        <v>0.2471193035042276</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008260625448606613</v>
+        <v>0.002527735853214345</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07278311192552422</v>
+        <v>0.117365048628983</v>
       </c>
       <c r="K9">
-        <v>1.052963076221516</v>
+        <v>0.4493560112061914</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4484248783915277</v>
+        <v>0.3456881148516473</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.038942324424283</v>
+        <v>6.49593508864865</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.258831037395936</v>
+        <v>0.5544396856747653</v>
       </c>
       <c r="C10">
-        <v>0.136382915753444</v>
+        <v>0.03800355429557101</v>
       </c>
       <c r="D10">
-        <v>0.5691357169188507</v>
+        <v>0.6554675828647589</v>
       </c>
       <c r="E10">
-        <v>0.1980841042465684</v>
+        <v>0.2506924433915003</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008178198542010558</v>
+        <v>0.002522877845269993</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08003626530901897</v>
+        <v>0.1182610102285437</v>
       </c>
       <c r="K10">
-        <v>1.257537974808315</v>
+        <v>0.5039606093600071</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5306523860321022</v>
+        <v>0.3648841080317737</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.276442113655804</v>
+        <v>6.509386009150148</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.353115376984732</v>
+        <v>0.5791704531911535</v>
       </c>
       <c r="C11">
-        <v>0.1456710797068581</v>
+        <v>0.04061778737623456</v>
       </c>
       <c r="D11">
-        <v>0.6010226344805005</v>
+        <v>0.661384513115479</v>
       </c>
       <c r="E11">
-        <v>0.2083289481048922</v>
+        <v>0.2524309585931448</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008141511247538268</v>
+        <v>0.002520773703027862</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08347804326337638</v>
+        <v>0.1187190046468842</v>
       </c>
       <c r="K11">
-        <v>1.351606567287007</v>
+        <v>0.5289692711807845</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5687087462052887</v>
+        <v>0.3737912711999414</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.393291287088914</v>
+        <v>6.518346742162805</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.389003370153489</v>
+        <v>0.5885656950268583</v>
       </c>
       <c r="C12">
-        <v>0.1492002555726941</v>
+        <v>0.04160772614774544</v>
       </c>
       <c r="D12">
-        <v>0.6132415606135453</v>
+        <v>0.6636686499356586</v>
       </c>
       <c r="E12">
-        <v>0.2122608042551022</v>
+        <v>0.2531055317195694</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008127726972016045</v>
+        <v>0.002519992049385</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08480380684528654</v>
+        <v>0.1188996811642511</v>
       </c>
       <c r="K12">
-        <v>1.387398013139176</v>
+        <v>0.5384634486333368</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5832258965331221</v>
+        <v>0.3771892440147937</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.438918092728102</v>
+        <v>6.522148783708417</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.381265611656517</v>
+        <v>0.5865409220318156</v>
       </c>
       <c r="C13">
-        <v>0.1484396129689856</v>
+        <v>0.04139452627701701</v>
       </c>
       <c r="D13">
-        <v>0.6106033595581266</v>
+        <v>0.6631747858773451</v>
       </c>
       <c r="E13">
-        <v>0.211411598707258</v>
+        <v>0.2529595286608952</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008130690974427485</v>
+        <v>0.002520159720484915</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0845172487537198</v>
+        <v>0.1188604471593635</v>
       </c>
       <c r="K13">
-        <v>1.379681715894947</v>
+        <v>0.5364176480870242</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5800944426824941</v>
+        <v>0.3764563186534815</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.429028349382747</v>
+        <v>6.52131176179131</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.356064051353599</v>
+        <v>0.5799428012809642</v>
       </c>
       <c r="C14">
-        <v>0.1459611733271089</v>
+        <v>0.04069923070910875</v>
       </c>
       <c r="D14">
-        <v>0.6020249235345148</v>
+        <v>0.6615715586516728</v>
       </c>
       <c r="E14">
-        <v>0.2086513458128536</v>
+        <v>0.2524861308961164</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008140375081864897</v>
+        <v>0.002520709092877057</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08358665303469337</v>
+        <v>0.1187337238659367</v>
       </c>
       <c r="K14">
-        <v>1.354547598994884</v>
+        <v>0.5297498849443798</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5699008806378245</v>
+        <v>0.3740703236113347</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.397016729085124</v>
+        <v>6.518651344435511</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.340652195703626</v>
+        <v>0.5759051897863117</v>
       </c>
       <c r="C15">
-        <v>0.1444446875219114</v>
+        <v>0.04027333925544951</v>
       </c>
       <c r="D15">
-        <v>0.5967895682875621</v>
+        <v>0.6605952011408078</v>
       </c>
       <c r="E15">
-        <v>0.2069675800685431</v>
+        <v>0.25219827465272</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008146320749282426</v>
+        <v>0.002521047568963842</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08301961978920502</v>
+        <v>0.1186570453943361</v>
       </c>
       <c r="K15">
-        <v>1.339175106367122</v>
+        <v>0.5256687955259167</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5636712262722341</v>
+        <v>0.3726120881756145</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.377591696823117</v>
+        <v>6.517075005231732</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.252693725532851</v>
+        <v>0.5528277209913028</v>
       </c>
       <c r="C16">
-        <v>0.1357774510913856</v>
+        <v>0.03783270771924663</v>
       </c>
       <c r="D16">
-        <v>0.567071217182189</v>
+        <v>0.6550869928848329</v>
       </c>
       <c r="E16">
-        <v>0.197421633489185</v>
+        <v>0.2505811005669827</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008180611759812652</v>
+        <v>0.002523017478478849</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0798143653270742</v>
+        <v>0.1182320932257355</v>
       </c>
       <c r="K16">
-        <v>1.251412710877787</v>
+        <v>0.5023296022907004</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5281794483909579</v>
+        <v>0.3643055118247958</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.26899235418179</v>
+        <v>6.508857602322507</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.199034877114826</v>
+        <v>0.5387246494320834</v>
       </c>
       <c r="C17">
-        <v>0.1304790734258177</v>
+        <v>0.03633546766087647</v>
       </c>
       <c r="D17">
-        <v>0.5490815302306373</v>
+        <v>0.6517855014190843</v>
       </c>
       <c r="E17">
-        <v>0.1916534569387451</v>
+        <v>0.2496179602308928</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008201849952905842</v>
+        <v>0.002524252997209306</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07788584235974128</v>
+        <v>0.1179843075845142</v>
       </c>
       <c r="K17">
-        <v>1.197848214942013</v>
+        <v>0.4880547522235759</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5065815873522794</v>
+        <v>0.3592543878504912</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.204703073788863</v>
+        <v>6.504544463828495</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.168274216680771</v>
+        <v>0.5306329631185065</v>
       </c>
       <c r="C18">
-        <v>0.1274377094392776</v>
+        <v>0.03547430820380271</v>
       </c>
       <c r="D18">
-        <v>0.53881877363429</v>
+        <v>0.6499151229186282</v>
       </c>
       <c r="E18">
-        <v>0.1883665445425535</v>
+        <v>0.2490746321117427</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008214142267233092</v>
+        <v>0.002524973596768554</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07678987138058346</v>
+        <v>0.1178465336723065</v>
       </c>
       <c r="K18">
-        <v>1.167132447329038</v>
+        <v>0.479860139532974</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.494219505287532</v>
+        <v>0.3563655756052171</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.168547527631773</v>
+        <v>6.502331138881658</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.157876046763676</v>
+        <v>0.5278967069922942</v>
       </c>
       <c r="C19">
-        <v>0.1264089390091101</v>
+        <v>0.03518273770181679</v>
       </c>
       <c r="D19">
-        <v>0.53535808335198</v>
+        <v>0.649286751447022</v>
       </c>
       <c r="E19">
-        <v>0.1872587997519091</v>
+        <v>0.2488924995544863</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000821831763342978</v>
+        <v>0.002525219292517522</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07642101505861376</v>
+        <v>0.1178007010769733</v>
       </c>
       <c r="K19">
-        <v>1.156747881548085</v>
+        <v>0.4770883259289178</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4900439336440314</v>
+        <v>0.3553903040373783</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.156443796571637</v>
+        <v>6.501627680132344</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.204736168103949</v>
+        <v>0.5402238751096036</v>
       </c>
       <c r="C20">
-        <v>0.131042444686031</v>
+        <v>0.03649485026615196</v>
       </c>
       <c r="D20">
-        <v>0.550987728734583</v>
+        <v>0.652133996433804</v>
       </c>
       <c r="E20">
-        <v>0.1922642687331972</v>
+        <v>0.2497193866568068</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008199581231451702</v>
+        <v>0.002524120443624343</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07808975031161935</v>
+        <v>0.1180101936561755</v>
       </c>
       <c r="K20">
-        <v>1.203540435820059</v>
+        <v>0.4895726908065114</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5088743745927573</v>
+        <v>0.3597903858321203</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.21146092907847</v>
+        <v>6.504975920669892</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.363461137907848</v>
+        <v>0.5818800112846816</v>
       </c>
       <c r="C21">
-        <v>0.1466888069004568</v>
+        <v>0.04090345652069516</v>
       </c>
       <c r="D21">
-        <v>0.6045405940306523</v>
+        <v>0.6620412848307637</v>
       </c>
       <c r="E21">
-        <v>0.2094606374782018</v>
+        <v>0.2526247388762641</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000813752774840174</v>
+        <v>0.002520547318612603</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08385936602709876</v>
+        <v>0.1187707490165835</v>
       </c>
       <c r="K21">
-        <v>1.361925282609519</v>
+        <v>0.5317077214764367</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5728919945549649</v>
+        <v>0.3747704699679844</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.40638096582785</v>
+        <v>6.519421677380706</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.468286248598275</v>
+        <v>0.6092807966137457</v>
       </c>
       <c r="C22">
-        <v>0.1569855202938726</v>
+        <v>0.04378463609161543</v>
       </c>
       <c r="D22">
-        <v>0.6403872770144119</v>
+        <v>0.6687699195455821</v>
       </c>
       <c r="E22">
-        <v>0.2210071762252213</v>
+        <v>0.2546181739167324</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000809759995427711</v>
+        <v>0.002518300285260044</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08776196540635084</v>
+        <v>0.1193100366401367</v>
       </c>
       <c r="K22">
-        <v>1.466441330370344</v>
+        <v>0.5593847904614506</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.615355819233578</v>
+        <v>0.3847066243547772</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.541866711530815</v>
+        <v>6.531245723973086</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.412230467061391</v>
+        <v>0.5946404777999419</v>
       </c>
       <c r="C23">
-        <v>0.1514826433156884</v>
+        <v>0.04224691594363605</v>
       </c>
       <c r="D23">
-        <v>0.6211729170100853</v>
+        <v>0.6651555407711669</v>
       </c>
       <c r="E23">
-        <v>0.2148147078765419</v>
+        <v>0.2535455906528696</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008118855517342816</v>
+        <v>0.002519491522034461</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08566631480928777</v>
+        <v>0.1190183474193631</v>
       </c>
       <c r="K23">
-        <v>1.410558600368006</v>
+        <v>0.5446003709361946</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5926305227862585</v>
+        <v>0.3793902081721541</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.468775318665223</v>
+        <v>6.524716920227775</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.202158340607127</v>
+        <v>0.539546024206544</v>
       </c>
       <c r="C24">
-        <v>0.130787729938703</v>
+        <v>0.036422794560238</v>
       </c>
       <c r="D24">
-        <v>0.5501256889964452</v>
+        <v>0.6519763555728844</v>
       </c>
       <c r="E24">
-        <v>0.1919880298527374</v>
+        <v>0.2496734993917968</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008200606663581423</v>
+        <v>0.00252418033914326</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07799752392144654</v>
+        <v>0.1179984759811035</v>
       </c>
       <c r="K24">
-        <v>1.200966738012312</v>
+        <v>0.4888863927836269</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5078376356717342</v>
+        <v>0.3595480139582321</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.208403202966167</v>
+        <v>6.504780029329623</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.979393673079926</v>
+        <v>0.4808845454911364</v>
       </c>
       <c r="C25">
-        <v>0.1086911649990725</v>
+        <v>0.03014116089734387</v>
       </c>
       <c r="D25">
-        <v>0.4766714762043023</v>
+        <v>0.6388523629105691</v>
       </c>
       <c r="E25">
-        <v>0.1685265634506123</v>
+        <v>0.2459038711254884</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008291747130721728</v>
+        <v>0.002529619159613223</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07022595443491753</v>
+        <v>0.1170798395845907</v>
       </c>
       <c r="K25">
-        <v>0.9783635638583235</v>
+        <v>0.4293989825189897</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4186432233072352</v>
+        <v>0.3387746964112637</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.958598262693442</v>
+        <v>6.49350022113282</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.438353082513629</v>
+        <v>0.8177879724135835</v>
       </c>
       <c r="C2">
-        <v>0.02551663813159166</v>
+        <v>0.09253522136373249</v>
       </c>
       <c r="D2">
-        <v>0.6301285277367725</v>
+        <v>0.4248567432884442</v>
       </c>
       <c r="E2">
-        <v>0.2434783830575107</v>
+        <v>0.152085813728764</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002533955021152286</v>
+        <v>0.0008361677267201747</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1165594566598962</v>
+        <v>0.06486739952892151</v>
       </c>
       <c r="K2">
-        <v>0.3861236454256414</v>
+        <v>0.8165878665835464</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3240210665798813</v>
+        <v>0.3544927727534883</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.493975059679684</v>
+        <v>3.797625355282577</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4099427871376804</v>
+        <v>0.7093786043627972</v>
       </c>
       <c r="C3">
-        <v>0.02238307421842478</v>
+        <v>0.08162135171237139</v>
       </c>
       <c r="D3">
-        <v>0.6248026463177325</v>
+        <v>0.3909472438864015</v>
       </c>
       <c r="E3">
-        <v>0.2420530726684511</v>
+        <v>0.1413900827071046</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002537101871097631</v>
+        <v>0.00084109581942225</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1163041069418149</v>
+        <v>0.06143275010640892</v>
       </c>
       <c r="K3">
-        <v>0.3571244798797863</v>
+        <v>0.7078918890135526</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3143606908792478</v>
+        <v>0.3117758927055192</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6.499767941423812</v>
+        <v>3.701173996956811</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3927038230266646</v>
+        <v>0.6432454816129791</v>
       </c>
       <c r="C4">
-        <v>0.02045940630277698</v>
+        <v>0.07492696672761667</v>
       </c>
       <c r="D4">
-        <v>0.6218220577688243</v>
+        <v>0.370658240767213</v>
       </c>
       <c r="E4">
-        <v>0.2412857709669431</v>
+        <v>0.1350207607237444</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002539137413494199</v>
+        <v>0.0008442187230480541</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1161953437903165</v>
+        <v>0.05941196181339237</v>
       </c>
       <c r="K4">
-        <v>0.3394821284449421</v>
+        <v>0.6415011290666399</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3085963874768112</v>
+        <v>0.2858641995603151</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.506022152374243</v>
+        <v>3.64768080719972</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3857306885595051</v>
+        <v>0.6163880182205332</v>
       </c>
       <c r="C5">
-        <v>0.0196756155546467</v>
+        <v>0.07219923867502587</v>
       </c>
       <c r="D5">
-        <v>0.6206803455029473</v>
+        <v>0.3625152995394387</v>
       </c>
       <c r="E5">
-        <v>0.2410002372427833</v>
+        <v>0.1324719167340973</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00253999298485402</v>
+        <v>0.000845516266543574</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1161631061015846</v>
+        <v>0.05860938584679687</v>
       </c>
       <c r="K5">
-        <v>0.3323340913769073</v>
+        <v>0.6145185651616458</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3062895471690439</v>
+        <v>0.2753767698532883</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.509249082385139</v>
+        <v>3.627252066689067</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3845759479010553</v>
+        <v>0.6119334840810211</v>
       </c>
       <c r="C6">
-        <v>0.01954547583486743</v>
+        <v>0.07174627936330324</v>
       </c>
       <c r="D6">
-        <v>0.6204951710610374</v>
+        <v>0.3611704752968734</v>
       </c>
       <c r="E6">
-        <v>0.2409544651316722</v>
+        <v>0.1320514180009518</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002540136628855498</v>
+        <v>0.0008457332437894483</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1161584831660036</v>
+        <v>0.05847734677463023</v>
       </c>
       <c r="K6">
-        <v>0.331149672861855</v>
+        <v>0.6100420557773987</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3059090478663791</v>
+        <v>0.273639456357742</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.509825879186963</v>
+        <v>3.623940665730942</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3926095704012482</v>
+        <v>0.6428829190837462</v>
       </c>
       <c r="C7">
-        <v>0.02044883530173536</v>
+        <v>0.07489018026760164</v>
       </c>
       <c r="D7">
-        <v>0.6218063649296539</v>
+        <v>0.3705479272316694</v>
       </c>
       <c r="E7">
-        <v>0.2412818101987213</v>
+        <v>0.1349862009236027</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002539148846319973</v>
+        <v>0.0008442361205885432</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.116194860081599</v>
+        <v>0.05940105491206538</v>
       </c>
       <c r="K7">
-        <v>0.3393855596172131</v>
+        <v>0.6411369602634807</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3085651057636554</v>
+        <v>0.2857224817279729</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.506062925515465</v>
+        <v>3.647399840251524</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4285148292560166</v>
+        <v>0.7803090913556332</v>
       </c>
       <c r="C8">
-        <v>0.02443612940361106</v>
+        <v>0.08876982769562858</v>
       </c>
       <c r="D8">
-        <v>0.6282321288906729</v>
+        <v>0.4130490351139855</v>
       </c>
       <c r="E8">
-        <v>0.242964569537893</v>
+        <v>0.1483549533869173</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002535018649774666</v>
+        <v>0.0008378471240046865</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1164614497278258</v>
+        <v>0.06366407613177572</v>
       </c>
       <c r="K8">
-        <v>0.3760910271105899</v>
+        <v>0.779027365994807</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3206555301103009</v>
+        <v>0.3396934046200712</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.495412604876066</v>
+        <v>3.763136423323687</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5005422801220618</v>
+        <v>1.054001525352732</v>
       </c>
       <c r="C9">
-        <v>0.03225705669143508</v>
+        <v>0.1161116924759398</v>
       </c>
       <c r="D9">
-        <v>0.6431273292498645</v>
+        <v>0.5010325709552319</v>
       </c>
       <c r="E9">
-        <v>0.2471193035042276</v>
+        <v>0.1762896607505908</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002527735853214345</v>
+        <v>0.0008260625448983796</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.117365048628983</v>
+        <v>0.0727831119254887</v>
       </c>
       <c r="K9">
-        <v>0.4493560112061914</v>
+        <v>1.052963076221459</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3456881148516473</v>
+        <v>0.4484248783915206</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.49593508864865</v>
+        <v>4.038942324424255</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5544396856747653</v>
+        <v>1.258831037396078</v>
       </c>
       <c r="C10">
-        <v>0.03800355429557101</v>
+        <v>0.1363829157536003</v>
       </c>
       <c r="D10">
-        <v>0.6554675828647589</v>
+        <v>0.5691357169186517</v>
       </c>
       <c r="E10">
-        <v>0.2506924433915003</v>
+        <v>0.1980841042465826</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002522877845269993</v>
+        <v>0.0008178198542386658</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1182610102285437</v>
+        <v>0.08003626530901187</v>
       </c>
       <c r="K10">
-        <v>0.5039606093600071</v>
+        <v>1.257537974808344</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3648841080317737</v>
+        <v>0.5306523860321164</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.509386009150148</v>
+        <v>4.276442113655776</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5791704531911535</v>
+        <v>1.353115376984817</v>
       </c>
       <c r="C11">
-        <v>0.04061778737623456</v>
+        <v>0.1456710797069292</v>
       </c>
       <c r="D11">
-        <v>0.661384513115479</v>
+        <v>0.601022634480529</v>
       </c>
       <c r="E11">
-        <v>0.2524309585931448</v>
+        <v>0.2083289481048638</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002520773703027862</v>
+        <v>0.0008141511247271903</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1187190046468842</v>
+        <v>0.08347804326329822</v>
       </c>
       <c r="K11">
-        <v>0.5289692711807845</v>
+        <v>1.351606567286922</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3737912711999414</v>
+        <v>0.5687087462052745</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.518346742162805</v>
+        <v>4.3932912870888</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5885656950268583</v>
+        <v>1.389003370153603</v>
       </c>
       <c r="C12">
-        <v>0.04160772614774544</v>
+        <v>0.149200255572282</v>
       </c>
       <c r="D12">
-        <v>0.6636686499356586</v>
+        <v>0.6132415606135453</v>
       </c>
       <c r="E12">
-        <v>0.2531055317195694</v>
+        <v>0.2122608042551022</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002519992049385</v>
+        <v>0.0008127726971710744</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1188996811642511</v>
+        <v>0.08480380684527944</v>
       </c>
       <c r="K12">
-        <v>0.5384634486333368</v>
+        <v>1.387398013139034</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3771892440147937</v>
+        <v>0.5832258965331079</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.522148783708417</v>
+        <v>4.438918092728045</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5865409220318156</v>
+        <v>1.381265611656488</v>
       </c>
       <c r="C13">
-        <v>0.04139452627701701</v>
+        <v>0.1484396129689713</v>
       </c>
       <c r="D13">
-        <v>0.6631747858773451</v>
+        <v>0.6106033595580413</v>
       </c>
       <c r="E13">
-        <v>0.2529595286608952</v>
+        <v>0.2114115987072509</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002520159720484915</v>
+        <v>0.0008130690973462171</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1188604471593635</v>
+        <v>0.0845172487537269</v>
       </c>
       <c r="K13">
-        <v>0.5364176480870242</v>
+        <v>1.37968171589489</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3764563186534815</v>
+        <v>0.5800944426825296</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.52131176179131</v>
+        <v>4.429028349382747</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5799428012809642</v>
+        <v>1.356064051353542</v>
       </c>
       <c r="C14">
-        <v>0.04069923070910875</v>
+        <v>0.1459611733272368</v>
       </c>
       <c r="D14">
-        <v>0.6615715586516728</v>
+        <v>0.6020249235346</v>
       </c>
       <c r="E14">
-        <v>0.2524861308961164</v>
+        <v>0.2086513458128607</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002520709092877057</v>
+        <v>0.0008140375081872242</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1187337238659367</v>
+        <v>0.08358665303475732</v>
       </c>
       <c r="K14">
-        <v>0.5297498849443798</v>
+        <v>1.354547598994827</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3740703236113347</v>
+        <v>0.5699008806378245</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.518651344435511</v>
+        <v>4.39701672908501</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5759051897863117</v>
+        <v>1.340652195703626</v>
       </c>
       <c r="C15">
-        <v>0.04027333925544951</v>
+        <v>0.1444446875220677</v>
       </c>
       <c r="D15">
-        <v>0.6605952011408078</v>
+        <v>0.5967895682874484</v>
       </c>
       <c r="E15">
-        <v>0.25219827465272</v>
+        <v>0.2069675800685289</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002521047568963842</v>
+        <v>0.0008146320749676948</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1186570453943361</v>
+        <v>0.08301961978915529</v>
       </c>
       <c r="K15">
-        <v>0.5256687955259167</v>
+        <v>1.339175106367122</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3726120881756145</v>
+        <v>0.5636712262722554</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.517075005231732</v>
+        <v>4.377591696823117</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5528277209913028</v>
+        <v>1.252693725532907</v>
       </c>
       <c r="C16">
-        <v>0.03783270771924663</v>
+        <v>0.1357774510915135</v>
       </c>
       <c r="D16">
-        <v>0.6550869928848329</v>
+        <v>0.5670712171824164</v>
       </c>
       <c r="E16">
-        <v>0.2505811005669827</v>
+        <v>0.197421633489185</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002523017478478849</v>
+        <v>0.000818061175982091</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1182320932257355</v>
+        <v>0.07981436532701025</v>
       </c>
       <c r="K16">
-        <v>0.5023296022907004</v>
+        <v>1.251412710877844</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3643055118247958</v>
+        <v>0.528179448390965</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.508857602322507</v>
+        <v>4.268992354181705</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5387246494320834</v>
+        <v>1.199034877114713</v>
       </c>
       <c r="C17">
-        <v>0.03633546766087647</v>
+        <v>0.1304790734258034</v>
       </c>
       <c r="D17">
-        <v>0.6517855014190843</v>
+        <v>0.5490815302306089</v>
       </c>
       <c r="E17">
-        <v>0.2496179602308928</v>
+        <v>0.1916534569387807</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002524252997209306</v>
+        <v>0.0008201849952588722</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1179843075845142</v>
+        <v>0.07788584235969864</v>
       </c>
       <c r="K17">
-        <v>0.4880547522235759</v>
+        <v>1.197848214941928</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3592543878504912</v>
+        <v>0.506581587352315</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.504544463828495</v>
+        <v>4.204703073788806</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5306329631185065</v>
+        <v>1.168274216680686</v>
       </c>
       <c r="C18">
-        <v>0.03547430820380271</v>
+        <v>0.1274377094391497</v>
       </c>
       <c r="D18">
-        <v>0.6499151229186282</v>
+        <v>0.538818773634091</v>
       </c>
       <c r="E18">
-        <v>0.2490746321117427</v>
+        <v>0.1883665445425535</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002524973596768554</v>
+        <v>0.0008214142266938067</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1178465336723065</v>
+        <v>0.07678987138058346</v>
       </c>
       <c r="K18">
-        <v>0.479860139532974</v>
+        <v>1.167132447329095</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3563655756052171</v>
+        <v>0.4942195052875249</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.502331138881658</v>
+        <v>4.168547527631858</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5278967069922942</v>
+        <v>1.157876046763676</v>
       </c>
       <c r="C19">
-        <v>0.03518273770181679</v>
+        <v>0.1264089390090959</v>
       </c>
       <c r="D19">
-        <v>0.649286751447022</v>
+        <v>0.53535808335198</v>
       </c>
       <c r="E19">
-        <v>0.2488924995544863</v>
+        <v>0.187258799751902</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002525219292517522</v>
+        <v>0.0008218317633791096</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1178007010769733</v>
+        <v>0.0764210150586635</v>
       </c>
       <c r="K19">
-        <v>0.4770883259289178</v>
+        <v>1.156747881548114</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3553903040373783</v>
+        <v>0.4900439336440243</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.501627680132344</v>
+        <v>4.156443796571608</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5402238751096036</v>
+        <v>1.204736168104063</v>
       </c>
       <c r="C20">
-        <v>0.03649485026615196</v>
+        <v>0.1310424446862726</v>
       </c>
       <c r="D20">
-        <v>0.652133996433804</v>
+        <v>0.550987728734583</v>
       </c>
       <c r="E20">
-        <v>0.2497193866568068</v>
+        <v>0.1922642687332186</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002524120443624343</v>
+        <v>0.0008199581231474852</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1180101936561755</v>
+        <v>0.07808975031159093</v>
       </c>
       <c r="K20">
-        <v>0.4895726908065114</v>
+        <v>1.203540435819946</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3597903858321203</v>
+        <v>0.5088743745927715</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.504975920669892</v>
+        <v>4.211460929078441</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5818800112846816</v>
+        <v>1.363461137907905</v>
       </c>
       <c r="C21">
-        <v>0.04090345652069516</v>
+        <v>0.1466888069005989</v>
       </c>
       <c r="D21">
-        <v>0.6620412848307637</v>
+        <v>0.6045405940308513</v>
       </c>
       <c r="E21">
-        <v>0.2526247388762641</v>
+        <v>0.2094606374782089</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002520547318612603</v>
+        <v>0.0008137527749072152</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1187707490165835</v>
+        <v>0.08385936602713429</v>
       </c>
       <c r="K21">
-        <v>0.5317077214764367</v>
+        <v>1.361925282609548</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3747704699679844</v>
+        <v>0.572891994554972</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.519421677380706</v>
+        <v>4.406380965827736</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6092807966137457</v>
+        <v>1.468286248598275</v>
       </c>
       <c r="C22">
-        <v>0.04378463609161543</v>
+        <v>0.1569855202938726</v>
       </c>
       <c r="D22">
-        <v>0.6687699195455821</v>
+        <v>0.6403872770145256</v>
       </c>
       <c r="E22">
-        <v>0.2546181739167324</v>
+        <v>0.2210071762252213</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002518300285260044</v>
+        <v>0.0008097599954286435</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1193100366401367</v>
+        <v>0.08776196540646453</v>
       </c>
       <c r="K22">
-        <v>0.5593847904614506</v>
+        <v>1.466441330370287</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3847066243547772</v>
+        <v>0.6153558192335709</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.531245723973086</v>
+        <v>4.541866711530702</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5946404777999419</v>
+        <v>1.412230467061278</v>
       </c>
       <c r="C23">
-        <v>0.04224691594363605</v>
+        <v>0.1514826433156315</v>
       </c>
       <c r="D23">
-        <v>0.6651555407711669</v>
+        <v>0.6211729170101989</v>
       </c>
       <c r="E23">
-        <v>0.2535455906528696</v>
+        <v>0.2148147078765419</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002519491522034461</v>
+        <v>0.0008118855517916693</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1190183474193631</v>
+        <v>0.0856663148091954</v>
       </c>
       <c r="K23">
-        <v>0.5446003709361946</v>
+        <v>1.410558600368148</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3793902081721541</v>
+        <v>0.5926305227862514</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.524716920227775</v>
+        <v>4.468775318665223</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.539546024206544</v>
+        <v>1.202158340607156</v>
       </c>
       <c r="C24">
-        <v>0.036422794560238</v>
+        <v>0.1307877299388167</v>
       </c>
       <c r="D24">
-        <v>0.6519763555728844</v>
+        <v>0.5501256889963599</v>
       </c>
       <c r="E24">
-        <v>0.2496734993917968</v>
+        <v>0.1919880298527374</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00252418033914326</v>
+        <v>0.0008200606663944368</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1179984759811035</v>
+        <v>0.07799752392141102</v>
       </c>
       <c r="K24">
-        <v>0.4888863927836269</v>
+        <v>1.200966738012454</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3595480139582321</v>
+        <v>0.5078376356717342</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.504780029329623</v>
+        <v>4.208403202966082</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4808845454911364</v>
+        <v>0.9793936730800397</v>
       </c>
       <c r="C25">
-        <v>0.03014116089734387</v>
+        <v>0.1086911649990583</v>
       </c>
       <c r="D25">
-        <v>0.6388523629105691</v>
+        <v>0.4766714762041886</v>
       </c>
       <c r="E25">
-        <v>0.2459038711254884</v>
+        <v>0.1685265634506159</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002529619159613223</v>
+        <v>0.0008291747131020243</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1170798395845907</v>
+        <v>0.07022595443486068</v>
       </c>
       <c r="K25">
-        <v>0.4293989825189897</v>
+        <v>0.978363563858295</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3387746964112637</v>
+        <v>0.4186432233072495</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.49350022113282</v>
+        <v>3.958598262693414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8177879724135835</v>
+        <v>2.607487105556686</v>
       </c>
       <c r="C2">
-        <v>0.09253522136373249</v>
+        <v>0.7197382067309377</v>
       </c>
       <c r="D2">
-        <v>0.4248567432884442</v>
+        <v>0.1960685581591122</v>
       </c>
       <c r="E2">
-        <v>0.152085813728764</v>
+        <v>0.04930639176200113</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008361677267201747</v>
+        <v>1.636643261957374</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003469759419476581</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002942485785763616</v>
       </c>
       <c r="J2">
-        <v>0.06486739952892151</v>
+        <v>0.9835563755760859</v>
       </c>
       <c r="K2">
-        <v>0.8165878665835464</v>
+        <v>0.9555645950765879</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3544927727534883</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1821950856428103</v>
       </c>
       <c r="O2">
-        <v>3.797625355282577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4468764693253036</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7093786043627972</v>
+        <v>2.268760180922868</v>
       </c>
       <c r="C3">
-        <v>0.08162135171237139</v>
+        <v>0.6272521575987469</v>
       </c>
       <c r="D3">
-        <v>0.3909472438864015</v>
+        <v>0.1698459097272718</v>
       </c>
       <c r="E3">
-        <v>0.1413900827071046</v>
+        <v>0.04479018962803716</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00084109581942225</v>
+        <v>1.487978984527217</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005892735434938845</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.005379360736522898</v>
       </c>
       <c r="J3">
-        <v>0.06143275010640892</v>
+        <v>0.9181377445321459</v>
       </c>
       <c r="K3">
-        <v>0.7078918890135526</v>
+        <v>0.8997927222131992</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3117758927055192</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1611879426646183</v>
       </c>
       <c r="O3">
-        <v>3.701173996956811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3896971665418292</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6432454816129791</v>
+        <v>2.061113479641563</v>
       </c>
       <c r="C4">
-        <v>0.07492696672761667</v>
+        <v>0.5711092624489709</v>
       </c>
       <c r="D4">
-        <v>0.370658240767213</v>
+        <v>0.153929312807648</v>
       </c>
       <c r="E4">
-        <v>0.1350207607237444</v>
+        <v>0.042052677796236</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008442187230480541</v>
+        <v>1.397304610849147</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007755533997302777</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.007379595287680285</v>
       </c>
       <c r="J4">
-        <v>0.05941196181339237</v>
+        <v>0.8783589838174635</v>
       </c>
       <c r="K4">
-        <v>0.6415011290666399</v>
+        <v>0.8656321294910185</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2858641995603151</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1483423779811588</v>
       </c>
       <c r="O4">
-        <v>3.64768080719972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3546624937998786</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6163880182205332</v>
+        <v>1.976508544161049</v>
       </c>
       <c r="C5">
-        <v>0.07219923867502587</v>
+        <v>0.5490986863808018</v>
       </c>
       <c r="D5">
-        <v>0.3625152995394387</v>
+        <v>0.1474820595913826</v>
       </c>
       <c r="E5">
-        <v>0.1324719167340973</v>
+        <v>0.04093805546963925</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000845516266543574</v>
+        <v>1.357663691716283</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.008609812789443561</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.008399267433905511</v>
       </c>
       <c r="J5">
-        <v>0.05860938584679687</v>
+        <v>0.8608023575445429</v>
       </c>
       <c r="K5">
-        <v>0.6145185651616458</v>
+        <v>0.8498762782596359</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2753767698532883</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1431557822134266</v>
       </c>
       <c r="O5">
-        <v>3.627252066689067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3404272537455029</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6119334840810211</v>
+        <v>1.962411374707699</v>
       </c>
       <c r="C6">
-        <v>0.07174627936330324</v>
+        <v>0.5463446894160597</v>
       </c>
       <c r="D6">
-        <v>0.3611704752968734</v>
+        <v>0.1464117361513928</v>
       </c>
       <c r="E6">
-        <v>0.1320514180009518</v>
+        <v>0.04074694480963581</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008457332437894483</v>
+        <v>1.347651166589841</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008764175012646341</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.008686713404603807</v>
       </c>
       <c r="J6">
-        <v>0.05847734677463023</v>
+        <v>0.8561440929144055</v>
       </c>
       <c r="K6">
-        <v>0.6100420557773987</v>
+        <v>0.8450068967839215</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.273639456357742</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1423418158624514</v>
       </c>
       <c r="O6">
-        <v>3.623940665730942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3380988371927742</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6428829190837462</v>
+        <v>2.059826839637935</v>
       </c>
       <c r="C7">
-        <v>0.07489018026760164</v>
+        <v>0.5732561011350583</v>
       </c>
       <c r="D7">
-        <v>0.3705479272316694</v>
+        <v>0.153836294176557</v>
       </c>
       <c r="E7">
-        <v>0.1349862009236027</v>
+        <v>0.0420202237222842</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008442361205885432</v>
+        <v>1.387363138768819</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007784976316784431</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007677164035328587</v>
       </c>
       <c r="J7">
-        <v>0.05940105491206538</v>
+        <v>0.8733425142217186</v>
       </c>
       <c r="K7">
-        <v>0.6411369602634807</v>
+        <v>0.8592549115728687</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2857224817279729</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1484005460905422</v>
       </c>
       <c r="O7">
-        <v>3.647399840251524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3545647709113098</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7803090913556332</v>
+        <v>2.490386629960994</v>
       </c>
       <c r="C8">
-        <v>0.08876982769562858</v>
+        <v>0.6909629749659416</v>
       </c>
       <c r="D8">
-        <v>0.4130490351139855</v>
+        <v>0.1869758289294197</v>
       </c>
       <c r="E8">
-        <v>0.1483549533869173</v>
+        <v>0.04771671266074895</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008378471240046865</v>
+        <v>1.572724820698454</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004241342378868085</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004003485025712905</v>
       </c>
       <c r="J8">
-        <v>0.06366407613177572</v>
+        <v>0.9545685101065544</v>
       </c>
       <c r="K8">
-        <v>0.779027365994807</v>
+        <v>0.9281279802347129</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3396934046200712</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.175110343202725</v>
       </c>
       <c r="O8">
-        <v>3.763136423323687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4272654307480721</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.054001525352732</v>
+        <v>3.33913313675481</v>
       </c>
       <c r="C9">
-        <v>0.1161116924759398</v>
+        <v>0.9235543930539052</v>
       </c>
       <c r="D9">
-        <v>0.5010325709552319</v>
+        <v>0.25371706619066</v>
       </c>
       <c r="E9">
-        <v>0.1762896607505908</v>
+        <v>0.05933235688149985</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008260625448983796</v>
+        <v>1.959483891084403</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0004925036433924834</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007297065850471185</v>
       </c>
       <c r="J9">
-        <v>0.0727831119254887</v>
+        <v>1.126212017768637</v>
       </c>
       <c r="K9">
-        <v>1.052963076221459</v>
+        <v>1.075465457401648</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4484248783915206</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.227837853493682</v>
       </c>
       <c r="O9">
-        <v>4.038942324424255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5705073492068564</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.258831037396078</v>
+        <v>3.972534432971997</v>
       </c>
       <c r="C10">
-        <v>0.1363829157536003</v>
+        <v>1.10924119364185</v>
       </c>
       <c r="D10">
-        <v>0.5691357169186517</v>
+        <v>0.3041677034244685</v>
       </c>
       <c r="E10">
-        <v>0.1980841042465826</v>
+        <v>0.06890927932391389</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008178198542386658</v>
+        <v>2.198073062513089</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.000230010920981627</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001566624391479365</v>
       </c>
       <c r="J10">
-        <v>0.08003626530901187</v>
+        <v>1.229656187993868</v>
       </c>
       <c r="K10">
-        <v>1.257537974808344</v>
+        <v>1.152945738012789</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5306523860321164</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2548109791041213</v>
       </c>
       <c r="O10">
-        <v>4.276442113655776</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6692458991642596</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.353115376984817</v>
+        <v>4.308172552267877</v>
       </c>
       <c r="C11">
-        <v>0.1456710797069292</v>
+        <v>1.274465469623181</v>
       </c>
       <c r="D11">
-        <v>0.601022634480529</v>
+        <v>0.3269804105932508</v>
       </c>
       <c r="E11">
-        <v>0.2083289481048638</v>
+        <v>0.08528927694453969</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008141511247271903</v>
+        <v>1.900719028767639</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01883341234166735</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002667109515551047</v>
       </c>
       <c r="J11">
-        <v>0.08347804326329822</v>
+        <v>1.072247647944153</v>
       </c>
       <c r="K11">
-        <v>1.351606567286922</v>
+        <v>0.939934621731183</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5687087462052745</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1716669655174456</v>
       </c>
       <c r="O11">
-        <v>4.3932912870888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6500545206870498</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.389003370153603</v>
+        <v>4.459866267056213</v>
       </c>
       <c r="C12">
-        <v>0.149200255572282</v>
+        <v>1.375677274907389</v>
       </c>
       <c r="D12">
-        <v>0.6132415606135453</v>
+        <v>0.3354803632894772</v>
       </c>
       <c r="E12">
-        <v>0.2122608042551022</v>
+        <v>0.1059903304663621</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008127726971710744</v>
+        <v>1.63174005639965</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05747818911559222</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002795302234910757</v>
       </c>
       <c r="J12">
-        <v>0.08480380684527944</v>
+        <v>0.9333742412760273</v>
       </c>
       <c r="K12">
-        <v>1.387398013139034</v>
+        <v>0.7711199276792797</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5832258965331079</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1121887710828773</v>
       </c>
       <c r="O12">
-        <v>4.438918092728045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6130405604641993</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.381265611656488</v>
+        <v>4.476728393222174</v>
       </c>
       <c r="C13">
-        <v>0.1484396129689713</v>
+        <v>1.436036768592601</v>
       </c>
       <c r="D13">
-        <v>0.6106033595580413</v>
+        <v>0.3332470615351468</v>
       </c>
       <c r="E13">
-        <v>0.2114115987072509</v>
+        <v>0.130759358681054</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008130690973462171</v>
+        <v>1.354796776689511</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131535570304294</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002448369733730082</v>
       </c>
       <c r="J13">
-        <v>0.0845172487537269</v>
+        <v>0.7934034897719755</v>
       </c>
       <c r="K13">
-        <v>1.37968171589489</v>
+        <v>0.6171055087384332</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5800944426825296</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06794135062007456</v>
       </c>
       <c r="O13">
-        <v>4.429028349382747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5606454145036395</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.356064051353542</v>
+        <v>4.427423736099342</v>
       </c>
       <c r="C14">
-        <v>0.1459611733272368</v>
+        <v>1.460857630275598</v>
       </c>
       <c r="D14">
-        <v>0.6020249235346</v>
+        <v>0.3268355836048329</v>
       </c>
       <c r="E14">
-        <v>0.2086513458128607</v>
+        <v>0.1509025031050513</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008140375081872242</v>
+        <v>1.159331945681288</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624661933771705</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002128044327813328</v>
       </c>
       <c r="J14">
-        <v>0.08358665303475732</v>
+        <v>0.6957942934333801</v>
       </c>
       <c r="K14">
-        <v>1.354547598994827</v>
+        <v>0.5179416871184799</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5699008806378245</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04635149972627417</v>
       </c>
       <c r="O14">
-        <v>4.39701672908501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.517490968058361</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.340652195703626</v>
+        <v>4.38621186426127</v>
       </c>
       <c r="C15">
-        <v>0.1444446875220677</v>
+        <v>1.458577094273323</v>
       </c>
       <c r="D15">
-        <v>0.5967895682874484</v>
+        <v>0.3229906604804</v>
       </c>
       <c r="E15">
-        <v>0.2069675800685289</v>
+        <v>0.1555128996457391</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008146320749676948</v>
+        <v>1.105584755398965</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749728969279118</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002089024246886062</v>
       </c>
       <c r="J15">
-        <v>0.08301961978915529</v>
+        <v>0.6695753741320232</v>
       </c>
       <c r="K15">
-        <v>1.339175106367122</v>
+        <v>0.4934457995473238</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5636712262722554</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04223828246946582</v>
       </c>
       <c r="O15">
-        <v>4.377591696823117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5038205028574367</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.252693725532907</v>
+        <v>4.107067434613043</v>
       </c>
       <c r="C16">
-        <v>0.1357774510915135</v>
+        <v>1.364568714584266</v>
       </c>
       <c r="D16">
-        <v>0.5670712171824164</v>
+        <v>0.3013486626485644</v>
       </c>
       <c r="E16">
-        <v>0.197421633489185</v>
+        <v>0.1454279116930657</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000818061175982091</v>
+        <v>1.059786261840472</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1623429082220298</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001680308605937597</v>
       </c>
       <c r="J16">
-        <v>0.07981436532701025</v>
+        <v>0.6533080430503162</v>
       </c>
       <c r="K16">
-        <v>1.251412710877844</v>
+        <v>0.4913507567503075</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.528179448390965</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04130767156774517</v>
       </c>
       <c r="O16">
-        <v>4.268992354181705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4736068358068479</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.199034877114713</v>
+        <v>3.919969740685417</v>
       </c>
       <c r="C17">
-        <v>0.1304790734258034</v>
+        <v>1.279724713230962</v>
       </c>
       <c r="D17">
-        <v>0.5490815302306089</v>
+        <v>0.2882661414380721</v>
       </c>
       <c r="E17">
-        <v>0.1916534569387807</v>
+        <v>0.1264118831517109</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008201849952588722</v>
+        <v>1.125552290556769</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1247171140222889</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001636599639628145</v>
       </c>
       <c r="J17">
-        <v>0.07788584235969864</v>
+        <v>0.6913512786185834</v>
       </c>
       <c r="K17">
-        <v>1.197848214941928</v>
+        <v>0.5400427179422422</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.506581587352315</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05031008453890351</v>
       </c>
       <c r="O17">
-        <v>4.204703073788806</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4730666778595634</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.168274216680686</v>
+        <v>3.790881702206491</v>
       </c>
       <c r="C18">
-        <v>0.1274377094391497</v>
+        <v>1.192332960560918</v>
       </c>
       <c r="D18">
-        <v>0.538818773634091</v>
+        <v>0.2809236066550653</v>
       </c>
       <c r="E18">
-        <v>0.1883665445425535</v>
+        <v>0.101521229414363</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008214142266938067</v>
+        <v>1.310323791655435</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07194304649096495</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001410258372237294</v>
       </c>
       <c r="J18">
-        <v>0.07678987138058346</v>
+        <v>0.7880874760986387</v>
       </c>
       <c r="K18">
-        <v>1.167132447329095</v>
+        <v>0.6506261898714456</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4942195052875249</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07709879486443327</v>
       </c>
       <c r="O18">
-        <v>4.168547527631858</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4982290054949132</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.157876046763676</v>
+        <v>3.718045287768177</v>
       </c>
       <c r="C19">
-        <v>0.1264089390090959</v>
+        <v>1.117393296558305</v>
       </c>
       <c r="D19">
-        <v>0.53535808335198</v>
+        <v>0.2786664669287546</v>
       </c>
       <c r="E19">
-        <v>0.187258799751902</v>
+        <v>0.07993757064222073</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008218317633791096</v>
+        <v>1.579779919760568</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02658062569833675</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001532587831976961</v>
       </c>
       <c r="J19">
-        <v>0.0764210150586635</v>
+        <v>0.9257346405361773</v>
       </c>
       <c r="K19">
-        <v>1.156747881548114</v>
+        <v>0.8095285051696237</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4900439336440243</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1289148738772141</v>
       </c>
       <c r="O19">
-        <v>4.156443796571608</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.543305038727155</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.204736168104063</v>
+        <v>3.805331380943187</v>
       </c>
       <c r="C20">
-        <v>0.1310424446862726</v>
+        <v>1.068249787223351</v>
       </c>
       <c r="D20">
-        <v>0.550987728734583</v>
+        <v>0.2907657477192913</v>
       </c>
       <c r="E20">
-        <v>0.1922642687332186</v>
+        <v>0.06632236709325756</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008199581231474852</v>
+        <v>2.103435332462993</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001198486437115065</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001867504517996998</v>
       </c>
       <c r="J20">
-        <v>0.07808975031159093</v>
+        <v>1.186339326529406</v>
       </c>
       <c r="K20">
-        <v>1.203540435819946</v>
+        <v>1.1121032071119</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5088743745927715</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2475730240299328</v>
       </c>
       <c r="O20">
-        <v>4.211460929078441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6432265577322553</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.363461137907905</v>
+        <v>4.285649898289137</v>
       </c>
       <c r="C21">
-        <v>0.1466888069005989</v>
+        <v>1.198667807845823</v>
       </c>
       <c r="D21">
-        <v>0.6045405940308513</v>
+        <v>0.3301769757831465</v>
       </c>
       <c r="E21">
-        <v>0.2094606374782089</v>
+        <v>0.07295463080073716</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008137527749072152</v>
+        <v>2.367853611488584</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0005101741757687073</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003526982921955302</v>
       </c>
       <c r="J21">
-        <v>0.08385936602713429</v>
+        <v>1.306741967915997</v>
       </c>
       <c r="K21">
-        <v>1.361925282609548</v>
+        <v>1.221460463415255</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.572891994554972</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.287669830858519</v>
       </c>
       <c r="O21">
-        <v>4.406380965827736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7308358151869427</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.468286248598275</v>
+        <v>4.604187149942334</v>
       </c>
       <c r="C22">
-        <v>0.1569855202938726</v>
+        <v>1.286351071009278</v>
       </c>
       <c r="D22">
-        <v>0.6403872770145256</v>
+        <v>0.3563355052529005</v>
       </c>
       <c r="E22">
-        <v>0.2210071762252213</v>
+        <v>0.07777735183093881</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008097599954286435</v>
+        <v>2.531261989931266</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001397669773848476</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005068475014863516</v>
       </c>
       <c r="J22">
-        <v>0.08776196540646453</v>
+        <v>1.380707862619374</v>
       </c>
       <c r="K22">
-        <v>1.466441330370287</v>
+        <v>1.286797271353123</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6153558192335709</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3075666533771653</v>
       </c>
       <c r="O22">
-        <v>4.541866711530702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.784501800726261</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.412230467061278</v>
+        <v>4.434295303182239</v>
       </c>
       <c r="C23">
-        <v>0.1514826433156315</v>
+        <v>1.236420012160465</v>
       </c>
       <c r="D23">
-        <v>0.6211729170101989</v>
+        <v>0.3423474631427155</v>
       </c>
       <c r="E23">
-        <v>0.2148147078765419</v>
+        <v>0.07521219250689715</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008118855517916693</v>
+        <v>2.455157571380113</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0008766284805394875</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003899391916986517</v>
       </c>
       <c r="J23">
-        <v>0.0856663148091954</v>
+        <v>1.346824165984913</v>
       </c>
       <c r="K23">
-        <v>1.410558600368148</v>
+        <v>1.259197498938605</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5926305227862514</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2967712232258748</v>
       </c>
       <c r="O23">
-        <v>4.468775318665223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7557266746544542</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.202158340607156</v>
+        <v>3.79380829932029</v>
       </c>
       <c r="C24">
-        <v>0.1307877299388167</v>
+        <v>1.055087231738497</v>
       </c>
       <c r="D24">
-        <v>0.5501256889963599</v>
+        <v>0.2901939512193792</v>
       </c>
       <c r="E24">
-        <v>0.1919880298527374</v>
+        <v>0.06577011660110266</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008200606663944368</v>
+        <v>2.153345613090664</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.617428826428124E-07</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001400106776835663</v>
       </c>
       <c r="J24">
-        <v>0.07799752392141102</v>
+        <v>1.211692056881134</v>
       </c>
       <c r="K24">
-        <v>1.200966738012454</v>
+        <v>1.144495310444768</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5078376356717342</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2565213620653708</v>
       </c>
       <c r="O24">
-        <v>4.208403202966082</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6475188458498167</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9793936730800397</v>
+        <v>3.108508596923855</v>
       </c>
       <c r="C25">
-        <v>0.1086911649990583</v>
+        <v>0.8643175355297785</v>
       </c>
       <c r="D25">
-        <v>0.4766714762041886</v>
+        <v>0.2354177812837861</v>
       </c>
       <c r="E25">
-        <v>0.1685265634506159</v>
+        <v>0.05609325628901463</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008291747131020243</v>
+        <v>1.836773274964372</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001136985997018725</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00153753054096839</v>
       </c>
       <c r="J25">
-        <v>0.07022595443486068</v>
+        <v>1.070587503190438</v>
       </c>
       <c r="K25">
-        <v>0.978363563858295</v>
+        <v>1.024205108567557</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4186432233072495</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2137247671532805</v>
       </c>
       <c r="O25">
-        <v>3.958598262693414</v>
+        <v>0.5317916163200778</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.607487105556686</v>
+        <v>2.611089972426271</v>
       </c>
       <c r="C2">
-        <v>0.7197382067309377</v>
+        <v>0.8146881469633627</v>
       </c>
       <c r="D2">
-        <v>0.1960685581591122</v>
+        <v>0.1963857301939385</v>
       </c>
       <c r="E2">
-        <v>0.04930639176200113</v>
+        <v>0.04938430024808227</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.636643261957374</v>
+        <v>1.22888336204872</v>
       </c>
       <c r="H2">
-        <v>0.003469759419476581</v>
+        <v>0.00272981340297529</v>
       </c>
       <c r="I2">
-        <v>0.002942485785763616</v>
+        <v>0.002086024199026149</v>
       </c>
       <c r="J2">
-        <v>0.9835563755760859</v>
+        <v>0.8228339281483557</v>
       </c>
       <c r="K2">
-        <v>0.9555645950765879</v>
+        <v>0.6968681900480078</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3075717131683362</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2199245100214569</v>
       </c>
       <c r="N2">
-        <v>0.1821950856428103</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4468764693253036</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1940051313257811</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4518640223358048</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.268760180922868</v>
+        <v>2.27324198184499</v>
       </c>
       <c r="C3">
-        <v>0.6272521575987469</v>
+        <v>0.705565700532901</v>
       </c>
       <c r="D3">
-        <v>0.1698459097272718</v>
+        <v>0.1702422246333697</v>
       </c>
       <c r="E3">
-        <v>0.04479018962803716</v>
+        <v>0.04526840434758128</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.487978984527217</v>
+        <v>1.135861182838951</v>
       </c>
       <c r="H3">
-        <v>0.005892735434938845</v>
+        <v>0.004643493206003546</v>
       </c>
       <c r="I3">
-        <v>0.005379360736522898</v>
+        <v>0.003742097612481565</v>
       </c>
       <c r="J3">
-        <v>0.9181377445321459</v>
+        <v>0.7777679832207554</v>
       </c>
       <c r="K3">
-        <v>0.8997927222131992</v>
+        <v>0.6729372756873389</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3053852298839317</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2051394504587591</v>
       </c>
       <c r="N3">
-        <v>0.1611879426646183</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3896971665418292</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1726105342497348</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3939991642280134</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.061113479641563</v>
+        <v>2.065805313159728</v>
       </c>
       <c r="C4">
-        <v>0.5711092624489709</v>
+        <v>0.6393091777239306</v>
       </c>
       <c r="D4">
-        <v>0.153929312807648</v>
+        <v>0.1543549535139448</v>
       </c>
       <c r="E4">
-        <v>0.042052677796236</v>
+        <v>0.04276264592928225</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.397304610849147</v>
+        <v>1.079212961820176</v>
       </c>
       <c r="H4">
-        <v>0.007755533997302777</v>
+        <v>0.00611734334707964</v>
       </c>
       <c r="I4">
-        <v>0.007379595287680285</v>
+        <v>0.00514141749594943</v>
       </c>
       <c r="J4">
-        <v>0.8783589838174635</v>
+        <v>0.7499159675710416</v>
       </c>
       <c r="K4">
-        <v>0.8656321294910185</v>
+        <v>0.6581494020148213</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3037283461695282</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1968530195207272</v>
       </c>
       <c r="N4">
-        <v>0.1483423779811588</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3546624937998786</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1595164384508507</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3585084188253802</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.976508544161049</v>
+        <v>1.981212591550445</v>
       </c>
       <c r="C5">
-        <v>0.5490986863808018</v>
+        <v>0.6131811660762878</v>
       </c>
       <c r="D5">
-        <v>0.1474820595913826</v>
+        <v>0.1479157777534255</v>
       </c>
       <c r="E5">
-        <v>0.04093805546963925</v>
+        <v>0.04174524661477541</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.357663691716283</v>
+        <v>1.054086144641758</v>
       </c>
       <c r="H5">
-        <v>0.008609812789443561</v>
+        <v>0.006793754913733185</v>
       </c>
       <c r="I5">
-        <v>0.008399267433905511</v>
+        <v>0.005897577821473377</v>
       </c>
       <c r="J5">
-        <v>0.8608023575445429</v>
+        <v>0.737392311864312</v>
       </c>
       <c r="K5">
-        <v>0.8498762782596359</v>
+        <v>0.6507628443115436</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3024009724380079</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1932457127669203</v>
       </c>
       <c r="N5">
-        <v>0.1431557822134266</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3404272537455029</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1542216501616451</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3440760004713113</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.962411374707699</v>
+        <v>1.967114844776347</v>
       </c>
       <c r="C6">
-        <v>0.5463446894160597</v>
+        <v>0.6097168500575378</v>
       </c>
       <c r="D6">
-        <v>0.1464117361513928</v>
+        <v>0.1468469017579253</v>
       </c>
       <c r="E6">
-        <v>0.04074694480963581</v>
+        <v>0.04157699285990546</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.347651166589841</v>
+        <v>1.047310851776516</v>
       </c>
       <c r="H6">
-        <v>0.008764175012646341</v>
+        <v>0.006915844114458003</v>
       </c>
       <c r="I6">
-        <v>0.008686713404603807</v>
+        <v>0.006153295334105913</v>
       </c>
       <c r="J6">
-        <v>0.8561440929144055</v>
+        <v>0.7339375438274942</v>
       </c>
       <c r="K6">
-        <v>0.8450068967839215</v>
+        <v>0.6479103347385688</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.301477877798888</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1921390119009132</v>
       </c>
       <c r="N6">
-        <v>0.1423418158624514</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3380988371927742</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1533835178179217</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3417100298157294</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.059826839637935</v>
+        <v>2.064521760881689</v>
       </c>
       <c r="C7">
-        <v>0.5732561011350583</v>
+        <v>0.6401695430977838</v>
       </c>
       <c r="D7">
-        <v>0.153836294176557</v>
+        <v>0.1542593229474249</v>
       </c>
       <c r="E7">
-        <v>0.0420202237222842</v>
+        <v>0.04271421844335244</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.387363138768819</v>
+        <v>1.074586493153205</v>
       </c>
       <c r="H7">
-        <v>0.007784976316784431</v>
+        <v>0.006148272355706585</v>
       </c>
       <c r="I7">
-        <v>0.007677164035328587</v>
+        <v>0.005480713525566117</v>
       </c>
       <c r="J7">
-        <v>0.8733425142217186</v>
+        <v>0.7362859071746186</v>
       </c>
       <c r="K7">
-        <v>0.8592549115728687</v>
+        <v>0.6515291735540316</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3009494975091584</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1946766538932998</v>
       </c>
       <c r="N7">
-        <v>0.1484005460905422</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3545647709113098</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1594688708672578</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3583541402331178</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.490386629960994</v>
+        <v>2.494349817708382</v>
       </c>
       <c r="C8">
-        <v>0.6909629749659416</v>
+        <v>0.7761698756287103</v>
       </c>
       <c r="D8">
-        <v>0.1869758289294197</v>
+        <v>0.1873120998325675</v>
       </c>
       <c r="E8">
-        <v>0.04771671266074895</v>
+        <v>0.04784203350495808</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.572724820698454</v>
+        <v>1.196838324055335</v>
       </c>
       <c r="H8">
-        <v>0.004241342378868085</v>
+        <v>0.003356792212080961</v>
       </c>
       <c r="I8">
-        <v>0.004003485025712905</v>
+        <v>0.002971728551536934</v>
       </c>
       <c r="J8">
-        <v>0.9545685101065544</v>
+        <v>0.7704388159701807</v>
       </c>
       <c r="K8">
-        <v>0.9281279802347129</v>
+        <v>0.675977786228259</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3017858692904625</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2102641089392705</v>
       </c>
       <c r="N8">
-        <v>0.175110343202725</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4272654307480721</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1864760587199257</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4318646207985637</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.33913313675481</v>
+        <v>3.338620697217721</v>
       </c>
       <c r="C9">
-        <v>0.9235543930539052</v>
+        <v>1.04965901364298</v>
       </c>
       <c r="D9">
-        <v>0.25371706619066</v>
+        <v>0.2537049659832036</v>
       </c>
       <c r="E9">
-        <v>0.05933235688149985</v>
+        <v>0.05828946507341648</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.959483891084403</v>
+        <v>1.44390105206179</v>
       </c>
       <c r="H9">
-        <v>0.0004925036433924834</v>
+        <v>0.0003933609849349207</v>
       </c>
       <c r="I9">
-        <v>0.0007297065850471185</v>
+        <v>0.0008202945028843445</v>
       </c>
       <c r="J9">
-        <v>1.126212017768637</v>
+        <v>0.8775772704810265</v>
       </c>
       <c r="K9">
-        <v>1.075465457401648</v>
+        <v>0.7388528440788065</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3072836395751466</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2525624045486552</v>
       </c>
       <c r="N9">
-        <v>0.227837853493682</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5705073492068564</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2400108867889088</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5765342228525299</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.972534432971997</v>
+        <v>3.966386468022392</v>
       </c>
       <c r="C10">
-        <v>1.10924119364185</v>
+        <v>1.25684222325151</v>
       </c>
       <c r="D10">
-        <v>0.3041677034244685</v>
+        <v>0.3037100326484818</v>
       </c>
       <c r="E10">
-        <v>0.06890927932391389</v>
+        <v>0.06709308409416526</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.198073062513089</v>
+        <v>1.612293533084539</v>
       </c>
       <c r="H10">
-        <v>0.000230010920981627</v>
+        <v>0.0002153622905707309</v>
       </c>
       <c r="I10">
-        <v>0.001566624391479365</v>
+        <v>0.001703215896382559</v>
       </c>
       <c r="J10">
-        <v>1.229656187993868</v>
+        <v>0.8840603981982724</v>
       </c>
       <c r="K10">
-        <v>1.152945738012789</v>
+        <v>0.7536143447421892</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2986491624840752</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2754403624883253</v>
       </c>
       <c r="N10">
-        <v>0.2548109791041213</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6692458991642596</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2664931403717929</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6756361805872331</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.308172552267877</v>
+        <v>4.300821381088554</v>
       </c>
       <c r="C11">
-        <v>1.274465469623181</v>
+        <v>1.402371051776129</v>
       </c>
       <c r="D11">
-        <v>0.3269804105932508</v>
+        <v>0.3263480873682028</v>
       </c>
       <c r="E11">
-        <v>0.08528927694453969</v>
+        <v>0.08576098997051318</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.900719028767639</v>
+        <v>1.439816815165983</v>
       </c>
       <c r="H11">
-        <v>0.01883341234166735</v>
+        <v>0.01879671401504979</v>
       </c>
       <c r="I11">
-        <v>0.002667109515551047</v>
+        <v>0.002790201304206263</v>
       </c>
       <c r="J11">
-        <v>1.072247647944153</v>
+        <v>0.6760004917305196</v>
       </c>
       <c r="K11">
-        <v>0.939934621731183</v>
+        <v>0.5930412689672693</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2365731555794071</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2188446365479351</v>
       </c>
       <c r="N11">
-        <v>0.1716669655174456</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6500545206870498</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1790209820351905</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6550714884330162</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.459866267056213</v>
+        <v>4.45289877278185</v>
       </c>
       <c r="C12">
-        <v>1.375677274907389</v>
+        <v>1.484370930423381</v>
       </c>
       <c r="D12">
-        <v>0.3354803632894772</v>
+        <v>0.3348222301958828</v>
       </c>
       <c r="E12">
-        <v>0.1059903304663621</v>
+        <v>0.1078121885730603</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.63174005639965</v>
+        <v>1.267318427177401</v>
       </c>
       <c r="H12">
-        <v>0.05747818911559222</v>
+        <v>0.0574465640612587</v>
       </c>
       <c r="I12">
-        <v>0.002795302234910757</v>
+        <v>0.002896147383438574</v>
       </c>
       <c r="J12">
-        <v>0.9333742412760273</v>
+        <v>0.5519057811394248</v>
       </c>
       <c r="K12">
-        <v>0.7711199276792797</v>
+        <v>0.4817906264295431</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1966333819409734</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1760115065289618</v>
       </c>
       <c r="N12">
-        <v>0.1121887710828773</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6130405604641993</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1168743639243246</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6170690366391796</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.476728393222174</v>
+        <v>4.471557148333659</v>
       </c>
       <c r="C13">
-        <v>1.436036768592601</v>
+        <v>1.528859944340695</v>
       </c>
       <c r="D13">
-        <v>0.3332470615351468</v>
+        <v>0.3327029995978847</v>
       </c>
       <c r="E13">
-        <v>0.130759358681054</v>
+        <v>0.1337367281058448</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.354796776689511</v>
+        <v>1.068946024293638</v>
       </c>
       <c r="H13">
-        <v>0.1131535570304294</v>
+        <v>0.1131468684406229</v>
       </c>
       <c r="I13">
-        <v>0.002448369733730082</v>
+        <v>0.002625412935240767</v>
       </c>
       <c r="J13">
-        <v>0.7934034897719755</v>
+        <v>0.4827897956382685</v>
       </c>
       <c r="K13">
-        <v>0.6171055087384332</v>
+        <v>0.3952504773707233</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1676457076282922</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1398018499102456</v>
       </c>
       <c r="N13">
-        <v>0.06794135062007456</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5606454145036395</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.07096645259426992</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5639879131931451</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.427423736099342</v>
+        <v>4.42406167913208</v>
       </c>
       <c r="C14">
-        <v>1.460857630275598</v>
+        <v>1.543963293091508</v>
       </c>
       <c r="D14">
-        <v>0.3268355836048329</v>
+        <v>0.3264274483438356</v>
       </c>
       <c r="E14">
-        <v>0.1509025031050513</v>
+        <v>0.1546173174974292</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.159331945681288</v>
+        <v>0.9211480562698569</v>
       </c>
       <c r="H14">
-        <v>0.1624661933771705</v>
+        <v>0.1624706526869346</v>
       </c>
       <c r="I14">
-        <v>0.002128044327813328</v>
+        <v>0.002394193315347515</v>
       </c>
       <c r="J14">
-        <v>0.6957942934333801</v>
+        <v>0.4531720650535931</v>
       </c>
       <c r="K14">
-        <v>0.5179416871184799</v>
+        <v>0.3447489249659199</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1514762520971331</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1174761908673254</v>
       </c>
       <c r="N14">
-        <v>0.04635149972627417</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.517490968058361</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04859354258583792</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5204560644778624</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.38621186426127</v>
+        <v>4.383567546060817</v>
       </c>
       <c r="C15">
-        <v>1.458577094273323</v>
+        <v>1.540083073534333</v>
       </c>
       <c r="D15">
-        <v>0.3229906604804</v>
+        <v>0.322643022562275</v>
       </c>
       <c r="E15">
-        <v>0.1555128996457391</v>
+        <v>0.1594913264789497</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.105584755398965</v>
+        <v>0.8778968245983521</v>
       </c>
       <c r="H15">
-        <v>0.1749728969279118</v>
+        <v>0.1749774462565057</v>
       </c>
       <c r="I15">
-        <v>0.002089024246886062</v>
+        <v>0.002407915591404297</v>
       </c>
       <c r="J15">
-        <v>0.6695753741320232</v>
+        <v>0.4522413515484089</v>
       </c>
       <c r="K15">
-        <v>0.4934457995473238</v>
+        <v>0.3341960501767005</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1483770511210381</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1123155099010233</v>
       </c>
       <c r="N15">
-        <v>0.04223828246946582</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5038205028574367</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04438653224130995</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5067300256312635</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.107067434613043</v>
+        <v>4.106896035506168</v>
       </c>
       <c r="C16">
-        <v>1.364568714584266</v>
+        <v>1.453031435053504</v>
       </c>
       <c r="D16">
-        <v>0.3013486626485644</v>
+        <v>0.3012445156283405</v>
       </c>
       <c r="E16">
-        <v>0.1454279116930657</v>
+        <v>0.1503987002943816</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.059786261840472</v>
+        <v>0.8240267507458015</v>
       </c>
       <c r="H16">
-        <v>0.1623429082220298</v>
+        <v>0.1623035469027201</v>
       </c>
       <c r="I16">
-        <v>0.001680308605937597</v>
+        <v>0.002068892339183392</v>
       </c>
       <c r="J16">
-        <v>0.6533080430503162</v>
+        <v>0.5135858769686337</v>
       </c>
       <c r="K16">
-        <v>0.4913507567503075</v>
+        <v>0.3518842801760691</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1570471655582963</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1151674384120938</v>
       </c>
       <c r="N16">
-        <v>0.04130767156774517</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4736068358068479</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04420203729110916</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4768387258606381</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.919969740685417</v>
+        <v>3.920642975025373</v>
       </c>
       <c r="C17">
-        <v>1.279724713230962</v>
+        <v>1.376227937590215</v>
       </c>
       <c r="D17">
-        <v>0.2882661414380721</v>
+        <v>0.288261974439024</v>
       </c>
       <c r="E17">
-        <v>0.1264118831517109</v>
+        <v>0.1315107890021636</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.125552290556769</v>
+        <v>0.8617403211134445</v>
       </c>
       <c r="H17">
-        <v>0.1247171140222889</v>
+        <v>0.1246256115811661</v>
       </c>
       <c r="I17">
-        <v>0.001636599639628145</v>
+        <v>0.002011581021085895</v>
       </c>
       <c r="J17">
-        <v>0.6913512786185834</v>
+        <v>0.5728084366379704</v>
       </c>
       <c r="K17">
-        <v>0.5400427179422422</v>
+        <v>0.3914392198510299</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1727166508821369</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1282535385383952</v>
       </c>
       <c r="N17">
-        <v>0.05031008453890351</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4730666778595634</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05423943182982427</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4766978650046028</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.790881702206491</v>
+        <v>3.791301606568595</v>
       </c>
       <c r="C18">
-        <v>1.192332960560918</v>
+        <v>1.301164511675836</v>
       </c>
       <c r="D18">
-        <v>0.2809236066550653</v>
+        <v>0.2809317735286641</v>
       </c>
       <c r="E18">
-        <v>0.101521229414363</v>
+        <v>0.1059379618956164</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.310323791655435</v>
+        <v>0.9871066760590992</v>
       </c>
       <c r="H18">
-        <v>0.07194304649096495</v>
+        <v>0.07183750117743415</v>
       </c>
       <c r="I18">
-        <v>0.001410258372237294</v>
+        <v>0.001722839879250593</v>
       </c>
       <c r="J18">
-        <v>0.7880874760986387</v>
+        <v>0.6554753006572014</v>
       </c>
       <c r="K18">
-        <v>0.6506261898714456</v>
+        <v>0.4654346004527952</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2004607590939784</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.155567834580939</v>
       </c>
       <c r="N18">
-        <v>0.07709879486443327</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4982290054949132</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.08272694693803473</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5025124198961279</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.718045287768177</v>
+        <v>3.717399549574793</v>
       </c>
       <c r="C19">
-        <v>1.117393296558305</v>
+        <v>1.240851264707999</v>
       </c>
       <c r="D19">
-        <v>0.2786664669287546</v>
+        <v>0.2786211343299101</v>
       </c>
       <c r="E19">
-        <v>0.07993757064222073</v>
+        <v>0.08269100627051529</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.579779919760568</v>
+        <v>1.171322514182975</v>
       </c>
       <c r="H19">
-        <v>0.02658062569833675</v>
+        <v>0.02650782606675506</v>
       </c>
       <c r="I19">
-        <v>0.001532587831976961</v>
+        <v>0.001878601861983853</v>
       </c>
       <c r="J19">
-        <v>0.9257346405361773</v>
+        <v>0.7556756961210311</v>
       </c>
       <c r="K19">
-        <v>0.8095285051696237</v>
+        <v>0.5660142539285644</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2373775371577018</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1940101252396005</v>
       </c>
       <c r="N19">
-        <v>0.1289148738772141</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.543305038727155</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.136949645615779</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5484333481325123</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.805331380943187</v>
+        <v>3.80106671787911</v>
       </c>
       <c r="C20">
-        <v>1.068249787223351</v>
+        <v>1.21437044435595</v>
       </c>
       <c r="D20">
-        <v>0.2907657477192913</v>
+        <v>0.2904689528537858</v>
       </c>
       <c r="E20">
-        <v>0.06632236709325756</v>
+        <v>0.06495345076674752</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.103435332462993</v>
+        <v>1.533882553507681</v>
       </c>
       <c r="H20">
-        <v>0.0001198486437115065</v>
+        <v>0.0001201072263010694</v>
       </c>
       <c r="I20">
-        <v>0.001867504517996998</v>
+        <v>0.002225451381232979</v>
       </c>
       <c r="J20">
-        <v>1.186339326529406</v>
+        <v>0.9041213515579329</v>
       </c>
       <c r="K20">
-        <v>1.1121032071119</v>
+        <v>0.7430476038649019</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2985191814580901</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2666206921495231</v>
       </c>
       <c r="N20">
-        <v>0.2475730240299328</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6432265577322553</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2596483382310595</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6496761620453597</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.285649898289137</v>
+        <v>4.275120021620296</v>
       </c>
       <c r="C21">
-        <v>1.198667807845823</v>
+        <v>1.340558131431067</v>
       </c>
       <c r="D21">
-        <v>0.3301769757831465</v>
+        <v>0.3293192067354056</v>
       </c>
       <c r="E21">
-        <v>0.07295463080073716</v>
+        <v>0.06955853438191273</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.367853611488584</v>
+        <v>1.776729951320306</v>
       </c>
       <c r="H21">
-        <v>0.0005101741757687073</v>
+        <v>0.0003540353804671881</v>
       </c>
       <c r="I21">
-        <v>0.003526982921955302</v>
+        <v>0.003497026633553446</v>
       </c>
       <c r="J21">
-        <v>1.306741967915997</v>
+        <v>0.7691447583862043</v>
       </c>
       <c r="K21">
-        <v>1.221460463415255</v>
+        <v>0.7478555766160611</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2896868440894025</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2823641727704498</v>
       </c>
       <c r="N21">
-        <v>0.287669830858519</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7308358151869427</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.29827193434744</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7367116737627555</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.604187149942334</v>
+        <v>4.588849512250533</v>
       </c>
       <c r="C22">
-        <v>1.286351071009278</v>
+        <v>1.422480128020538</v>
       </c>
       <c r="D22">
-        <v>0.3563355052529005</v>
+        <v>0.3550447920785587</v>
       </c>
       <c r="E22">
-        <v>0.07777735183093881</v>
+        <v>0.07317370526866451</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.531261989931266</v>
+        <v>1.937539697145297</v>
       </c>
       <c r="H22">
-        <v>0.001397669773848476</v>
+        <v>0.0009767762969246085</v>
       </c>
       <c r="I22">
-        <v>0.005068475014863516</v>
+        <v>0.004457076007555294</v>
       </c>
       <c r="J22">
-        <v>1.380707862619374</v>
+        <v>0.6758039034866101</v>
       </c>
       <c r="K22">
-        <v>1.286797271353123</v>
+        <v>0.7445885852212939</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2817790341374931</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.29048656244602</v>
       </c>
       <c r="N22">
-        <v>0.3075666533771653</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.784501800726261</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.316797230011403</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7897619937281064</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.434295303182239</v>
+        <v>4.42161800996314</v>
       </c>
       <c r="C23">
-        <v>1.236420012160465</v>
+        <v>1.379007132070171</v>
       </c>
       <c r="D23">
-        <v>0.3423474631427155</v>
+        <v>0.3413067071542173</v>
       </c>
       <c r="E23">
-        <v>0.07521219250689715</v>
+        <v>0.0713161752665421</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.455157571380113</v>
+        <v>1.851468292611798</v>
       </c>
       <c r="H23">
-        <v>0.0008766284805394875</v>
+        <v>0.0006154140865470836</v>
       </c>
       <c r="I23">
-        <v>0.003899391916986517</v>
+        <v>0.003565751178284948</v>
       </c>
       <c r="J23">
-        <v>1.346824165984913</v>
+        <v>0.7491927344654243</v>
       </c>
       <c r="K23">
-        <v>1.259197498938605</v>
+        <v>0.7561472785902694</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2893613219176814</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2901189700733582</v>
       </c>
       <c r="N23">
-        <v>0.2967712232258748</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7557266746544542</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3069944225478451</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7614686900592176</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.79380829932029</v>
+        <v>3.789381672073546</v>
       </c>
       <c r="C24">
-        <v>1.055087231738497</v>
+        <v>1.202476486786054</v>
       </c>
       <c r="D24">
-        <v>0.2901939512193792</v>
+        <v>0.2898884534333774</v>
       </c>
       <c r="E24">
-        <v>0.06577011660110266</v>
+        <v>0.06403749096843381</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.153345613090664</v>
+        <v>1.568268008115666</v>
       </c>
       <c r="H24">
-        <v>1.617428826428124E-07</v>
+        <v>3.157790438024222E-07</v>
       </c>
       <c r="I24">
-        <v>0.001400106776835663</v>
+        <v>0.001653851191848688</v>
       </c>
       <c r="J24">
-        <v>1.211692056881134</v>
+        <v>0.9236314612639944</v>
       </c>
       <c r="K24">
-        <v>1.144495310444768</v>
+        <v>0.7643448159117625</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3063564626643753</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2747392855596331</v>
       </c>
       <c r="N24">
-        <v>0.2565213620653708</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6475188458498167</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2689727518551166</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6540827004551275</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108508596923855</v>
+        <v>3.109658763659979</v>
       </c>
       <c r="C25">
-        <v>0.8643175355297785</v>
+        <v>0.9808981214566757</v>
       </c>
       <c r="D25">
-        <v>0.2354177812837861</v>
+        <v>0.2355359277367199</v>
       </c>
       <c r="E25">
-        <v>0.05609325628901463</v>
+        <v>0.05548163909173809</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.836773274964372</v>
+        <v>1.359435450708787</v>
       </c>
       <c r="H25">
-        <v>0.001136985997018725</v>
+        <v>0.0008986335098064568</v>
       </c>
       <c r="I25">
-        <v>0.00153753054096839</v>
+        <v>0.001530962645659883</v>
       </c>
       <c r="J25">
-        <v>1.070587503190438</v>
+        <v>0.8558084024630261</v>
       </c>
       <c r="K25">
-        <v>1.024205108567557</v>
+        <v>0.7170252321320376</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.304232899063976</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2385899518481693</v>
       </c>
       <c r="N25">
-        <v>0.2137247671532805</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5317916163200778</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2257976282290173</v>
       </c>
       <c r="Q25">
+        <v>0.5375205636552423</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
